--- a/Project_PSSMs/Project_2/Fixed_Residue_PSSM/3_G_QDP.xlsx
+++ b/Project_PSSMs/Project_2/Fixed_Residue_PSSM/3_G_QDP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -472,34 +472,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C2" t="n">
-        <v>2.445314748886636</v>
+        <v>2.148082449484106</v>
       </c>
       <c r="D2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K2" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="3">
@@ -509,34 +509,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I3" t="n">
-        <v>2.385530194325458</v>
+        <v>2.452858648446483</v>
       </c>
       <c r="J3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K3" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="4">
@@ -546,34 +546,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C4" t="n">
-        <v>2.155773282607775</v>
+        <v>2.096230975789803</v>
       </c>
       <c r="D4" t="n">
-        <v>2.858404142531311</v>
+        <v>2.692209961642769</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F4" t="n">
-        <v>2.534413739214437</v>
+        <v>2.593412958216263</v>
       </c>
       <c r="G4" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H4" t="n">
-        <v>1.831891355611516</v>
+        <v>1.803572043601532</v>
       </c>
       <c r="I4" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J4" t="n">
-        <v>2.383998293110773</v>
+        <v>2.406523758597115</v>
       </c>
       <c r="K4" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="5">
@@ -583,34 +583,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9791410814547929</v>
+        <v>1.182408495485197</v>
       </c>
       <c r="D5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G5" t="n">
-        <v>2.11165757892389</v>
+        <v>2.109845119594896</v>
       </c>
       <c r="H5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K5" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="6">
@@ -620,34 +620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K6" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="7">
@@ -657,34 +657,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.968227422714129</v>
+        <v>2.969747241494152</v>
       </c>
       <c r="C7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K7" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="8">
@@ -694,34 +694,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E8" t="n">
-        <v>2.872473771867825</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K8" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="9">
@@ -731,34 +731,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.60576125949547</v>
+        <v>3.60478042374679</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K9" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="10">
@@ -768,34 +768,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I10" t="n">
-        <v>1.540744877419734</v>
+        <v>1.563305428938405</v>
       </c>
       <c r="J10" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K10" t="n">
-        <v>2.230059663123872</v>
+        <v>2.222546513090658</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C11" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D11" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E11" t="n">
-        <v>2.004982807912651</v>
+        <v>4.321925657870105</v>
       </c>
       <c r="F11" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G11" t="n">
-        <v>2.580224368612512</v>
+        <v>2.553296737039967</v>
       </c>
       <c r="H11" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I11" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J11" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K11" t="n">
-        <v>1.378498158360072</v>
+        <v>1.316127640993138</v>
       </c>
     </row>
     <row r="12">
@@ -842,34 +842,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K12" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="13">
@@ -879,34 +879,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C13" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D13" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E13" t="n">
-        <v>1.677600918059337</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F13" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G13" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H13" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I13" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J13" t="n">
-        <v>2.274100318327234</v>
+        <v>2.288028317569583</v>
       </c>
       <c r="K13" t="n">
-        <v>1.615446716375287</v>
+        <v>1.643250964795983</v>
       </c>
     </row>
     <row r="14">
@@ -916,34 +916,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D14" t="n">
-        <v>1.665220136258692</v>
+        <v>1.614184075505974</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J14" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K14" t="n">
-        <v>2.088145255899183</v>
+        <v>2.049292396228972</v>
       </c>
     </row>
     <row r="15">
@@ -953,34 +953,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2435452671807036</v>
+        <v>0.2909158993567536</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K15" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="16">
@@ -990,34 +990,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="I16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J16" t="n">
-        <v>2.308965882696018</v>
+        <v>2.296230437378346</v>
       </c>
       <c r="K16" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="17">
@@ -1027,34 +1027,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7195062179618333</v>
+        <v>0.664916679553523</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02326337533215711</v>
+        <v>-0.01597229904361772</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F17" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G17" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H17" t="n">
-        <v>0.546544477753625</v>
+        <v>0.4887775851738753</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9098568535012483</v>
+        <v>0.8560884359178706</v>
       </c>
       <c r="J17" t="n">
-        <v>1.259332524850644</v>
+        <v>1.181730155285412</v>
       </c>
       <c r="K17" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="18">
@@ -1064,34 +1064,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C18" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D18" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F18" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G18" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H18" t="n">
-        <v>0.4567732474481301</v>
+        <v>0.4268858361544174</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9485553788625345</v>
+        <v>0.8419896446685495</v>
       </c>
       <c r="J18" t="n">
-        <v>1.375231190334049</v>
+        <v>1.397214283013171</v>
       </c>
       <c r="K18" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="19">
@@ -1101,34 +1101,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C19" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="D19" t="n">
-        <v>1.724422072614219</v>
+        <v>1.999877502719866</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F19" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G19" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H19" t="n">
-        <v>1.884820635636553</v>
+        <v>1.87075167403029</v>
       </c>
       <c r="I19" t="n">
-        <v>2.095001416816705</v>
+        <v>2.060528487064933</v>
       </c>
       <c r="J19" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K19" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
     <row r="20">
@@ -1138,34 +1138,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C20" t="n">
-        <v>1.647299041912855</v>
+        <v>1.848215081300985</v>
       </c>
       <c r="D20" t="n">
-        <v>2.151566308415059</v>
+        <v>2.092037320700836</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F20" t="n">
-        <v>3.828487353461771</v>
+        <v>3.80371478333808</v>
       </c>
       <c r="G20" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="H20" t="n">
-        <v>2.196698938189231</v>
+        <v>2.165741813025353</v>
       </c>
       <c r="I20" t="n">
-        <v>1.919959739760866</v>
+        <v>1.924342917764891</v>
       </c>
       <c r="J20" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K20" t="n">
-        <v>2.430930115620706</v>
+        <v>2.480296410765245</v>
       </c>
     </row>
     <row r="21">
@@ -1175,34 +1175,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="C21" t="n">
-        <v>1.742911626587559</v>
+        <v>1.939643815061356</v>
       </c>
       <c r="D21" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="E21" t="n">
-        <v>2.44995795850935</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="F21" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="G21" t="n">
-        <v>3.277656199457084</v>
+        <v>3.29480888432791</v>
       </c>
       <c r="H21" t="n">
-        <v>2.414012716715693</v>
+        <v>2.489890920197907</v>
       </c>
       <c r="I21" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="J21" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
       <c r="K21" t="n">
-        <v>-21.41816196196237</v>
+        <v>-19.10121911200491</v>
       </c>
     </row>
   </sheetData>
